--- a/SQL/Radiacion Horizontal.xlsx
+++ b/SQL/Radiacion Horizontal.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500"/>
+    <workbookView xWindow="315" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$N$346</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>Región Metropolitana</t>
   </si>
@@ -243,6 +239,9 @@
   <si>
     <t>PROMEDIO ANUAL</t>
   </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE </t>
+  </si>
 </sst>
 </file>
 
@@ -336,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,7 +547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,17 +557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -621,7 +621,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>2395.33</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -727,7 +727,7 @@
         <v>2375.08</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -780,7 +780,7 @@
         <v>2069.71</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -833,7 +833,7 @@
         <v>2442.5300000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -886,7 +886,7 @@
         <v>2288.9499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -939,7 +939,7 @@
         <v>2465.63</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -992,7 +992,7 @@
         <v>2359.9899999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>2345.1799999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>2055.17</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2174.34</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1674.23</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>2024.05</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1813.99</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1832.61</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1861.73</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>1804.17</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>1808.01</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>1552.16</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1510.28</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>1530.55</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>1489.64</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>1387.74</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1338.31</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>1259.92</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>1191.02</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1187.93</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>1275.05</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>1126.1600000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>1347.39</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>1192.56</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1028.9100000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1098.83</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>922.39</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>1043.8900000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>1054.54</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>899.54</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>872.22</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2637,11 +2637,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q1">
-    <sortState ref="A2:Q346">
-      <sortCondition ref="D1:D346"/>
+    <sortState ref="A2:Q39">
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2653,9 +2654,9 @@
       <selection activeCell="B1" sqref="B1:N346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>1436.61</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>1597.46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>1649.65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>2244.6799999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>2069.71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>1189.8599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>1855.6</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3051,7 +3052,7 @@
         <v>1482.92</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>2359.9899999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>1630.13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>1435.61</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>2341.66</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>1126.1600000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>1785.62</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3359,7 +3360,7 @@
         <v>1523.61</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>1861.73</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>848.14</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>1508.16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>2505.94</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>1232.78</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>1760.16</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>1908.28</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>2400.85</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>2434.94</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>1679.99</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>1435.22</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>1387.74</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>1438.54</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4063,7 +4064,7 @@
         <v>1483.75</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>1163.3499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>1844.11</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>1566.65</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>1187.93</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>1557.04</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>2055.17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>1537.31</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>1523.82</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>1284.3399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>1533.95</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>1523.67</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>1605.68</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>1412.32</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>1165.4100000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>1174.6500000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>1562.14</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>1312.12</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>1192.56</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>1768.97</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>1512.48</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>1594.17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>1587.96</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>1620.76</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>2375.08</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>1843.34</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>1537.87</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>1557.07</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>2053.48</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>1497.12</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>1804.17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>1554.48</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>1425.3</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>2174.34</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>1700.67</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>1344.09</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>1347.39</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>1448.21</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>1615.43</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>1645.21</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>1452.82</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>1523.19</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>1542.69</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>1614.91</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>1182.4100000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>2428.58</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>1808.01</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6395,7 +6396,7 @@
         <v>1545.34</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>1626.64</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>1433.94</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>1437.86</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>1561.7</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>1460.39</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>1496.36</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>1388.29</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6791,7 +6792,7 @@
         <v>1810.34</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>1259.92</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>1211.5</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>1290.6199999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>1343.8</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>1421.68</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>2439.9</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>1387.81</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>1602.58</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>1219.4000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7319,7 +7320,7 @@
         <v>1543.32</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>1492.19</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>2342.6</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>1674.23</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7539,7 +7540,7 @@
         <v>1852.48</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>1979.04</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>1834.03</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>2067.39</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>1736.57</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7847,7 +7848,7 @@
         <v>1835.64</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>1548.97</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>2024.05</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>1542.52</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>1865.32</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>1813.99</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>1308.48</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>1332.26</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>1328.06</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>1054.54</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1490.24</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>1846.07</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>1343.7</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>1551.49</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8683,7 +8684,7 @@
         <v>1455.96</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>1400.62</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>1530.67</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>1601.12</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>1563.5</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>1543.67</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>1885.59</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>1209.1199999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>1752.18</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>1546.46</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>1363.25</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>1548.26</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>1426.82</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>1706.12</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>1497.67</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>1314.85</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>1260.3499999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>1461.96</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>1636.03</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9651,7 +9652,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>1413.81</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9739,7 +9740,7 @@
         <v>1658.65</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>1327.16</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9915,7 +9916,7 @@
         <v>1600.74</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>1553.32</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>2288.9499999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>1522.14</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10091,7 +10092,7 @@
         <v>1341.44</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>1518.73</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>1222.5</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>2159.06</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>1574.34</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>1579.91</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>1587.51</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>2072.92</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10443,7 +10444,7 @@
         <v>1802.24</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>1543.39</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>1566.67</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>1542.23</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>922.39</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>1505.21</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10707,7 +10708,7 @@
         <v>1478.9</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>1558.89</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>1527.82</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>1385.46</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>1537.62</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>1098.83</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>2442.5300000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11103,7 +11104,7 @@
         <v>1672.48</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>1270.99</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11191,7 +11192,7 @@
         <v>1749.49</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>1385.61</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11323,7 +11324,7 @@
         <v>2149.65</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11367,7 +11368,7 @@
         <v>1282.55</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11411,7 +11412,7 @@
         <v>1791.84</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>1275.05</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>1557.34</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11543,7 +11544,7 @@
         <v>1417.26</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11587,7 +11588,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11631,7 +11632,7 @@
         <v>1396.03</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11675,7 +11676,7 @@
         <v>1546.73</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>1563.9</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>1801.51</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>1552.68</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11851,7 +11852,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>1530.55</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>1534.1</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>1489.64</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>1430.96</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>1889.55</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12247,7 +12248,7 @@
         <v>1551.57</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12291,7 +12292,7 @@
         <v>2427.34</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>1553.89</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12379,7 +12380,7 @@
         <v>1546.05</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>1607.56</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12467,7 +12468,7 @@
         <v>1833.68</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>1388.12</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>1549.43</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>1025.8399999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>2264.0100000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12731,7 +12732,7 @@
         <v>1068.5899999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>1427.61</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12907,7 +12908,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12951,7 +12952,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>1256.8800000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -13083,7 +13084,7 @@
         <v>1301.3399999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -13127,7 +13128,7 @@
         <v>1555.23</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -13171,7 +13172,7 @@
         <v>1832.61</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>872.44</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>1169.06</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -13303,7 +13304,7 @@
         <v>1429.13</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>1258.06</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13391,7 +13392,7 @@
         <v>1909.51</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>2395.33</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>1307.6199999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13523,7 +13524,7 @@
         <v>1160.07</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>1177.33</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13611,7 +13612,7 @@
         <v>1191.02</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>1649.45</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13699,7 +13700,7 @@
         <v>1797.06</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13743,7 +13744,7 @@
         <v>1559.21</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13787,7 +13788,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13831,7 +13832,7 @@
         <v>1499.09</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>1616.92</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>1206.04</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>1579.45</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>1573.25</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>1542.7</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>1535.54</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -14315,7 +14316,7 @@
         <v>1443.88</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -14403,7 +14404,7 @@
         <v>1638.4</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -14447,7 +14448,7 @@
         <v>1670.17</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -14491,7 +14492,7 @@
         <v>1519.03</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>1929.37</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -14579,7 +14580,7 @@
         <v>1267.82</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -14623,7 +14624,7 @@
         <v>1537.25</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -14667,7 +14668,7 @@
         <v>2096.6</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>1292.9100000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>1258.46</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>899.54</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>1647.13</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14887,7 +14888,7 @@
         <v>1399.31</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14931,7 +14932,7 @@
         <v>1518.14</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14975,7 +14976,7 @@
         <v>1973.69</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -15019,7 +15020,7 @@
         <v>1457.95</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15063,7 +15064,7 @@
         <v>1792.04</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15107,7 +15108,7 @@
         <v>1539.54</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15151,7 +15152,7 @@
         <v>1594.47</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>1819.98</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -15239,7 +15240,7 @@
         <v>1659.54</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15283,7 +15284,7 @@
         <v>1929.47</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -15327,7 +15328,7 @@
         <v>1656.82</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -15371,7 +15372,7 @@
         <v>1073.33</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15415,7 +15416,7 @@
         <v>1524.78</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>1534.57</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15547,7 +15548,7 @@
         <v>1662.97</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -15591,7 +15592,7 @@
         <v>1322.87</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15635,7 +15636,7 @@
         <v>1864.08</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15679,7 +15680,7 @@
         <v>1535.71</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15723,7 +15724,7 @@
         <v>1285.01</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15767,7 +15768,7 @@
         <v>1509.09</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15811,7 +15812,7 @@
         <v>2465.63</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -15899,7 +15900,7 @@
         <v>1513.31</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>1496.99</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -16031,7 +16032,7 @@
         <v>1553.88</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -16075,7 +16076,7 @@
         <v>1586.98</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -16119,7 +16120,7 @@
         <v>1552.16</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>1491.29</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -16207,7 +16208,7 @@
         <v>1938.31</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>1843.44</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -16295,7 +16296,7 @@
         <v>1467.01</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -16339,7 +16340,7 @@
         <v>2384.5700000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>1775.81</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -16427,7 +16428,7 @@
         <v>1508.8</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -16471,7 +16472,7 @@
         <v>1555.57</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -16515,7 +16516,7 @@
         <v>2345.1799999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>1405.21</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>1591.94</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -16647,7 +16648,7 @@
         <v>1385.03</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>2332.2600000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -16735,7 +16736,7 @@
         <v>1866.49</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -16779,7 +16780,7 @@
         <v>872.22</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -16823,7 +16824,7 @@
         <v>1432.29</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -16867,7 +16868,7 @@
         <v>2204.4699999999998</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16911,7 +16912,7 @@
         <v>1385.55</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>1500.07</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16999,7 +17000,7 @@
         <v>1043.8900000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -17043,7 +17044,7 @@
         <v>1028.9100000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -17087,7 +17088,7 @@
         <v>1428.37</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>1532.59</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -17175,7 +17176,7 @@
         <v>1573.02</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -17219,7 +17220,7 @@
         <v>1338.31</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -17263,7 +17264,7 @@
         <v>2087.92</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -17307,7 +17308,7 @@
         <v>1431.34</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -17351,7 +17352,7 @@
         <v>1527.94</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -17395,7 +17396,7 @@
         <v>1483.22</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -17439,7 +17440,7 @@
         <v>2168.75</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -17483,7 +17484,7 @@
         <v>1456.99</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -17527,7 +17528,7 @@
         <v>1510.28</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -17571,7 +17572,7 @@
         <v>1595.68</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -17615,7 +17616,7 @@
         <v>1384.27</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -17659,7 +17660,7 @@
         <v>1429.02</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -17703,7 +17704,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -17747,7 +17748,7 @@
         <v>1495.55</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -17791,7 +17792,7 @@
         <v>1498.64</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -17835,7 +17836,7 @@
         <v>1546.31</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -17887,4 +17888,410 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>SUBSTITUTE(B3,",",".")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D2,",","."),",",SUBSTITUTE(Hoja1!E2,",","."),",",SUBSTITUTE(Hoja1!F2,",","."),",",SUBSTITUTE(Hoja1!G2,",","."),",",SUBSTITUTE(Hoja1!H2,",","."),",",SUBSTITUTE(Hoja1!I2,",","."),",",SUBSTITUTE(Hoja1!J2,",","."),",",SUBSTITUTE(Hoja1!K2,",","."),",",SUBSTITUTE(Hoja1!L2,",","."),",",SUBSTITUTE(Hoja1!M2,",","."),",",SUBSTITUTE(Hoja1!N2,",","."),",",SUBSTITUTE(Hoja1!O2,",","."),",",SUBSTITUTE(Hoja1!P2,",","."),")")</f>
+        <v>(18,205.01,181.56,186.75,180.42,179.97,155.33,169.31,186.13,207.23,247.76,265.91,229.95)</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE($B$2,A4)</f>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (18,205.01,181.56,186.75,180.42,179.97,155.33,169.31,186.13,207.23,247.76,265.91,229.95)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D3,",","."),",",SUBSTITUTE(Hoja1!E3,",","."),",",SUBSTITUTE(Hoja1!F3,",","."),",",SUBSTITUTE(Hoja1!G3,",","."),",",SUBSTITUTE(Hoja1!H3,",","."),",",SUBSTITUTE(Hoja1!I3,",","."),",",SUBSTITUTE(Hoja1!J3,",","."),",",SUBSTITUTE(Hoja1!K3,",","."),",",SUBSTITUTE(Hoja1!L3,",","."),",",SUBSTITUTE(Hoja1!M3,",","."),",",SUBSTITUTE(Hoja1!N3,",","."),",",SUBSTITUTE(Hoja1!O3,",","."),",",SUBSTITUTE(Hoja1!P3,",","."),")")</f>
+        <v>(19,208.84,183.12,183.48,175.69,174.94,148.15,162.88,180.62,203.45,243.65,271.73,238.53)</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B41" si="0">CONCATENATE($B$2,A5)</f>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (19,208.84,183.12,183.48,175.69,174.94,148.15,162.88,180.62,203.45,243.65,271.73,238.53)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D4,",","."),",",SUBSTITUTE(Hoja1!E4,",","."),",",SUBSTITUTE(Hoja1!F4,",","."),",",SUBSTITUTE(Hoja1!G4,",","."),",",SUBSTITUTE(Hoja1!H4,",","."),",",SUBSTITUTE(Hoja1!I4,",","."),",",SUBSTITUTE(Hoja1!J4,",","."),",",SUBSTITUTE(Hoja1!K4,",","."),",",SUBSTITUTE(Hoja1!L4,",","."),",",SUBSTITUTE(Hoja1!M4,",","."),",",SUBSTITUTE(Hoja1!N4,",","."),",",SUBSTITUTE(Hoja1!O4,",","."),",",SUBSTITUTE(Hoja1!P4,",","."),")")</f>
+        <v>(20,215.9,193,198.84,150.51,136.96,119.94,121.26,132.71,157.02,199.18,214.6,229.81)</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (20,215.9,193,198.84,150.51,136.96,119.94,121.26,132.71,157.02,199.18,214.6,229.81)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D5,",","."),",",SUBSTITUTE(Hoja1!E5,",","."),",",SUBSTITUTE(Hoja1!F5,",","."),",",SUBSTITUTE(Hoja1!G5,",","."),",",SUBSTITUTE(Hoja1!H5,",","."),",",SUBSTITUTE(Hoja1!I5,",","."),",",SUBSTITUTE(Hoja1!J5,",","."),",",SUBSTITUTE(Hoja1!K5,",","."),",",SUBSTITUTE(Hoja1!L5,",","."),",",SUBSTITUTE(Hoja1!M5,",","."),",",SUBSTITUTE(Hoja1!N5,",","."),",",SUBSTITUTE(Hoja1!O5,",","."),",",SUBSTITUTE(Hoja1!P5,",","."),")")</f>
+        <v>(21,220.99,199.25,198.79,179.29,172.09,150.44,163.02,177.51,200.05,246.53,268.96,265.61)</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (21,220.99,199.25,198.79,179.29,172.09,150.44,163.02,177.51,200.05,246.53,268.96,265.61)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D6,",","."),",",SUBSTITUTE(Hoja1!E6,",","."),",",SUBSTITUTE(Hoja1!F6,",","."),",",SUBSTITUTE(Hoja1!G6,",","."),",",SUBSTITUTE(Hoja1!H6,",","."),",",SUBSTITUTE(Hoja1!I6,",","."),",",SUBSTITUTE(Hoja1!J6,",","."),",",SUBSTITUTE(Hoja1!K6,",","."),",",SUBSTITUTE(Hoja1!L6,",","."),",",SUBSTITUTE(Hoja1!M6,",","."),",",SUBSTITUTE(Hoja1!N6,",","."),",",SUBSTITUTE(Hoja1!O6,",","."),",",SUBSTITUTE(Hoja1!P6,",","."),")")</f>
+        <v>(22,230.46,204.98,200.48,162.21,150.74,136.02,143.55,157.85,173.05,227.94,239.02,262.67)</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (22,230.46,204.98,200.48,162.21,150.74,136.02,143.55,157.85,173.05,227.94,239.02,262.67)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D7,",","."),",",SUBSTITUTE(Hoja1!E7,",","."),",",SUBSTITUTE(Hoja1!F7,",","."),",",SUBSTITUTE(Hoja1!G7,",","."),",",SUBSTITUTE(Hoja1!H7,",","."),",",SUBSTITUTE(Hoja1!I7,",","."),",",SUBSTITUTE(Hoja1!J7,",","."),",",SUBSTITUTE(Hoja1!K7,",","."),",",SUBSTITUTE(Hoja1!L7,",","."),",",SUBSTITUTE(Hoja1!M7,",","."),",",SUBSTITUTE(Hoja1!N7,",","."),",",SUBSTITUTE(Hoja1!O7,",","."),",",SUBSTITUTE(Hoja1!P7,",","."),")")</f>
+        <v>(23,234.24,220.82,216.96,176.42,161.79,148.83,155.27,169.32,183.98,240.51,263.39,294.09)</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (23,234.24,220.82,216.96,176.42,161.79,148.83,155.27,169.32,183.98,240.51,263.39,294.09)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D8,",","."),",",SUBSTITUTE(Hoja1!E8,",","."),",",SUBSTITUTE(Hoja1!F8,",","."),",",SUBSTITUTE(Hoja1!G8,",","."),",",SUBSTITUTE(Hoja1!H8,",","."),",",SUBSTITUTE(Hoja1!I8,",","."),",",SUBSTITUTE(Hoja1!J8,",","."),",",SUBSTITUTE(Hoja1!K8,",","."),",",SUBSTITUTE(Hoja1!L8,",","."),",",SUBSTITUTE(Hoja1!M8,",","."),",",SUBSTITUTE(Hoja1!N8,",","."),",",SUBSTITUTE(Hoja1!O8,",","."),",",SUBSTITUTE(Hoja1!P8,",","."),")")</f>
+        <v>(24,244.72,220.74,210.94,164.38,146.45,131.91,142.65,158.99,176.56,228.87,250.61,283.17)</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (24,244.72,220.74,210.94,164.38,146.45,131.91,142.65,158.99,176.56,228.87,250.61,283.17)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D9,",","."),",",SUBSTITUTE(Hoja1!E9,",","."),",",SUBSTITUTE(Hoja1!F9,",","."),",",SUBSTITUTE(Hoja1!G9,",","."),",",SUBSTITUTE(Hoja1!H9,",","."),",",SUBSTITUTE(Hoja1!I9,",","."),",",SUBSTITUTE(Hoja1!J9,",","."),",",SUBSTITUTE(Hoja1!K9,",","."),",",SUBSTITUTE(Hoja1!L9,",","."),",",SUBSTITUTE(Hoja1!M9,",","."),",",SUBSTITUTE(Hoja1!N9,",","."),",",SUBSTITUTE(Hoja1!O9,",","."),",",SUBSTITUTE(Hoja1!P9,",","."),")")</f>
+        <v>(25,249.83,220.15,205.14,161.25,143.87,129.14,139.61,157.1,176.61,227.93,249.29,285.25)</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (25,249.83,220.15,205.14,161.25,143.87,129.14,139.61,157.1,176.61,227.93,249.29,285.25)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D10,",","."),",",SUBSTITUTE(Hoja1!E10,",","."),",",SUBSTITUTE(Hoja1!F10,",","."),",",SUBSTITUTE(Hoja1!G10,",","."),",",SUBSTITUTE(Hoja1!H10,",","."),",",SUBSTITUTE(Hoja1!I10,",","."),",",SUBSTITUTE(Hoja1!J10,",","."),",",SUBSTITUTE(Hoja1!K10,",","."),",",SUBSTITUTE(Hoja1!L10,",","."),",",SUBSTITUTE(Hoja1!M10,",","."),",",SUBSTITUTE(Hoja1!N10,",","."),",",SUBSTITUTE(Hoja1!O10,",","."),",",SUBSTITUTE(Hoja1!P10,",","."),")")</f>
+        <v>(26,233.11,196.19,181.52,133.89,116.33,100.87,113.79,137.31,165.22,208.84,219.98,248.13)</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (26,233.11,196.19,181.52,133.89,116.33,100.87,113.79,137.31,165.22,208.84,219.98,248.13)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D11,",","."),",",SUBSTITUTE(Hoja1!E11,",","."),",",SUBSTITUTE(Hoja1!F11,",","."),",",SUBSTITUTE(Hoja1!G11,",","."),",",SUBSTITUTE(Hoja1!H11,",","."),",",SUBSTITUTE(Hoja1!I11,",","."),",",SUBSTITUTE(Hoja1!J11,",","."),",",SUBSTITUTE(Hoja1!K11,",","."),",",SUBSTITUTE(Hoja1!L11,",","."),",",SUBSTITUTE(Hoja1!M11,",","."),",",SUBSTITUTE(Hoja1!N11,",","."),",",SUBSTITUTE(Hoja1!O11,",","."),",",SUBSTITUTE(Hoja1!P11,",","."),")")</f>
+        <v>(27,241.57,210.49,193.22,145.55,124.51,109.03,119.81,139.36,165.83,216.7,236.18,272.08)</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (27,241.57,210.49,193.22,145.55,124.51,109.03,119.81,139.36,165.83,216.7,236.18,272.08)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D12,",","."),",",SUBSTITUTE(Hoja1!E12,",","."),",",SUBSTITUTE(Hoja1!F12,",","."),",",SUBSTITUTE(Hoja1!G12,",","."),",",SUBSTITUTE(Hoja1!H12,",","."),",",SUBSTITUTE(Hoja1!I12,",","."),",",SUBSTITUTE(Hoja1!J12,",","."),",",SUBSTITUTE(Hoja1!K12,",","."),",",SUBSTITUTE(Hoja1!L12,",","."),",",SUBSTITUTE(Hoja1!M12,",","."),",",SUBSTITUTE(Hoja1!N12,",","."),",",SUBSTITUTE(Hoja1!O12,",","."),",",SUBSTITUTE(Hoja1!P12,",","."),")")</f>
+        <v>(28,191.43,164.12,153.11,111.41,91.75,75.76,89.75,111.37,136.86,171.92,175.32,201.42)</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (28,191.43,164.12,153.11,111.41,91.75,75.76,89.75,111.37,136.86,171.92,175.32,201.42)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D13,",","."),",",SUBSTITUTE(Hoja1!E13,",","."),",",SUBSTITUTE(Hoja1!F13,",","."),",",SUBSTITUTE(Hoja1!G13,",","."),",",SUBSTITUTE(Hoja1!H13,",","."),",",SUBSTITUTE(Hoja1!I13,",","."),",",SUBSTITUTE(Hoja1!J13,",","."),",",SUBSTITUTE(Hoja1!K13,",","."),",",SUBSTITUTE(Hoja1!L13,",","."),",",SUBSTITUTE(Hoja1!M13,",","."),",",SUBSTITUTE(Hoja1!N13,",","."),",",SUBSTITUTE(Hoja1!O13,",","."),",",SUBSTITUTE(Hoja1!P13,",","."),")")</f>
+        <v>(29,236.48,199.64,179.87,134.11,108.19,90.09,104.14,125.9,158.56,210.26,226.13,250.7)</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (29,236.48,199.64,179.87,134.11,108.19,90.09,104.14,125.9,158.56,210.26,226.13,250.7)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D14,",","."),",",SUBSTITUTE(Hoja1!E14,",","."),",",SUBSTITUTE(Hoja1!F14,",","."),",",SUBSTITUTE(Hoja1!G14,",","."),",",SUBSTITUTE(Hoja1!H14,",","."),",",SUBSTITUTE(Hoja1!I14,",","."),",",SUBSTITUTE(Hoja1!J14,",","."),",",SUBSTITUTE(Hoja1!K14,",","."),",",SUBSTITUTE(Hoja1!L14,",","."),",",SUBSTITUTE(Hoja1!M14,",","."),",",SUBSTITUTE(Hoja1!N14,",","."),",",SUBSTITUTE(Hoja1!O14,",","."),",",SUBSTITUTE(Hoja1!P14,",","."),")")</f>
+        <v>(30,213.72,179.92,163.58,119.78,95.21,79.39,92.58,112.3,141.88,189.22,201.68,224.72)</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (30,213.72,179.92,163.58,119.78,95.21,79.39,92.58,112.3,141.88,189.22,201.68,224.72)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D15,",","."),",",SUBSTITUTE(Hoja1!E15,",","."),",",SUBSTITUTE(Hoja1!F15,",","."),",",SUBSTITUTE(Hoja1!G15,",","."),",",SUBSTITUTE(Hoja1!H15,",","."),",",SUBSTITUTE(Hoja1!I15,",","."),",",SUBSTITUTE(Hoja1!J15,",","."),",",SUBSTITUTE(Hoja1!K15,",","."),",",SUBSTITUTE(Hoja1!L15,",","."),",",SUBSTITUTE(Hoja1!M15,",","."),",",SUBSTITUTE(Hoja1!N15,",","."),",",SUBSTITUTE(Hoja1!O15,",","."),",",SUBSTITUTE(Hoja1!P15,",","."),")")</f>
+        <v>(31,228.55,186.07,165.1,119.43,90.88,75.62,84.76,104.85,135.97,187.8,214.55,239.03)</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (31,228.55,186.07,165.1,119.43,90.88,75.62,84.76,104.85,135.97,187.8,214.55,239.03)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D16,",","."),",",SUBSTITUTE(Hoja1!E16,",","."),",",SUBSTITUTE(Hoja1!F16,",","."),",",SUBSTITUTE(Hoja1!G16,",","."),",",SUBSTITUTE(Hoja1!H16,",","."),",",SUBSTITUTE(Hoja1!I16,",","."),",",SUBSTITUTE(Hoja1!J16,",","."),",",SUBSTITUTE(Hoja1!K16,",","."),",",SUBSTITUTE(Hoja1!L16,",","."),",",SUBSTITUTE(Hoja1!M16,",","."),",",SUBSTITUTE(Hoja1!N16,",","."),",",SUBSTITUTE(Hoja1!O16,",","."),",",SUBSTITUTE(Hoja1!P16,",","."),")")</f>
+        <v>(32,243.97,200.79,169.64,120.21,90.96,67.08,78.97,100.13,133.69,183.44,220.2,252.66)</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (32,243.97,200.79,169.64,120.21,90.96,67.08,78.97,100.13,133.69,183.44,220.2,252.66)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D17,",","."),",",SUBSTITUTE(Hoja1!E17,",","."),",",SUBSTITUTE(Hoja1!F17,",","."),",",SUBSTITUTE(Hoja1!G17,",","."),",",SUBSTITUTE(Hoja1!H17,",","."),",",SUBSTITUTE(Hoja1!I17,",","."),",",SUBSTITUTE(Hoja1!J17,",","."),",",SUBSTITUTE(Hoja1!K17,",","."),",",SUBSTITUTE(Hoja1!L17,",","."),",",SUBSTITUTE(Hoja1!M17,",","."),",",SUBSTITUTE(Hoja1!N17,",","."),",",SUBSTITUTE(Hoja1!O17,",","."),",",SUBSTITUTE(Hoja1!P17,",","."),")")</f>
+        <v>(33,246.66,196.66,171.24,111.24,75.83,57.62,69.83,93.24,127.24,181.66,222.87,250.07)</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (33,246.66,196.66,171.24,111.24,75.83,57.62,69.83,93.24,127.24,181.66,222.87,250.07)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D18,",","."),",",SUBSTITUTE(Hoja1!E18,",","."),",",SUBSTITUTE(Hoja1!F18,",","."),",",SUBSTITUTE(Hoja1!G18,",","."),",",SUBSTITUTE(Hoja1!H18,",","."),",",SUBSTITUTE(Hoja1!I18,",","."),",",SUBSTITUTE(Hoja1!J18,",","."),",",SUBSTITUTE(Hoja1!K18,",","."),",",SUBSTITUTE(Hoja1!L18,",","."),",",SUBSTITUTE(Hoja1!M18,",","."),",",SUBSTITUTE(Hoja1!N18,",","."),",",SUBSTITUTE(Hoja1!O18,",","."),",",SUBSTITUTE(Hoja1!P18,",","."),")")</f>
+        <v>(34,247.05,197.05,171.54,111.54,76.03,57.77,70.03,93.54,127.54,182.05,223.31,250.57)</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (34,247.05,197.05,171.54,111.54,76.03,57.77,70.03,93.54,127.54,182.05,223.31,250.57)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D19,",","."),",",SUBSTITUTE(Hoja1!E19,",","."),",",SUBSTITUTE(Hoja1!F19,",","."),",",SUBSTITUTE(Hoja1!G19,",","."),",",SUBSTITUTE(Hoja1!H19,",","."),",",SUBSTITUTE(Hoja1!I19,",","."),",",SUBSTITUTE(Hoja1!J19,",","."),",",SUBSTITUTE(Hoja1!K19,",","."),",",SUBSTITUTE(Hoja1!L19,",","."),",",SUBSTITUTE(Hoja1!M19,",","."),",",SUBSTITUTE(Hoja1!N19,",","."),",",SUBSTITUTE(Hoja1!O19,",","."),",",SUBSTITUTE(Hoja1!P19,",","."),")")</f>
+        <v>(35,219.08,176.74,152.8,97.16,59.52,41.6,54.47,76.52,111.11,155.6,192.44,215.11)</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (35,219.08,176.74,152.8,97.16,59.52,41.6,54.47,76.52,111.11,155.6,192.44,215.11)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D20,",","."),",",SUBSTITUTE(Hoja1!E20,",","."),",",SUBSTITUTE(Hoja1!F20,",","."),",",SUBSTITUTE(Hoja1!G20,",","."),",",SUBSTITUTE(Hoja1!H20,",","."),",",SUBSTITUTE(Hoja1!I20,",","."),",",SUBSTITUTE(Hoja1!J20,",","."),",",SUBSTITUTE(Hoja1!K20,",","."),",",SUBSTITUTE(Hoja1!L20,",","."),",",SUBSTITUTE(Hoja1!M20,",","."),",",SUBSTITUTE(Hoja1!N20,",","."),",",SUBSTITUTE(Hoja1!O20,",","."),",",SUBSTITUTE(Hoja1!P20,",","."),")")</f>
+        <v>(36,214.8,172.64,148.91,94.65,56.01,39.65,50.53,73.77,108.65,153.3,188.05,209.32)</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (36,214.8,172.64,148.91,94.65,56.01,39.65,50.53,73.77,108.65,153.3,188.05,209.32)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D21,",","."),",",SUBSTITUTE(Hoja1!E21,",","."),",",SUBSTITUTE(Hoja1!F21,",","."),",",SUBSTITUTE(Hoja1!G21,",","."),",",SUBSTITUTE(Hoja1!H21,",","."),",",SUBSTITUTE(Hoja1!I21,",","."),",",SUBSTITUTE(Hoja1!J21,",","."),",",SUBSTITUTE(Hoja1!K21,",","."),",",SUBSTITUTE(Hoja1!L21,",","."),",",SUBSTITUTE(Hoja1!M21,",","."),",",SUBSTITUTE(Hoja1!N21,",","."),",",SUBSTITUTE(Hoja1!O21,",","."),",",SUBSTITUTE(Hoja1!P21,",","."),")")</f>
+        <v>(37,218.96,170.19,147.87,96.64,57.66,44.21,49.73,74.19,110.76,160.72,189.09,210.53)</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (37,218.96,170.19,147.87,96.64,57.66,44.21,49.73,74.19,110.76,160.72,189.09,210.53)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D22,",","."),",",SUBSTITUTE(Hoja1!E22,",","."),",",SUBSTITUTE(Hoja1!F22,",","."),",",SUBSTITUTE(Hoja1!G22,",","."),",",SUBSTITUTE(Hoja1!H22,",","."),",",SUBSTITUTE(Hoja1!I22,",","."),",",SUBSTITUTE(Hoja1!J22,",","."),",",SUBSTITUTE(Hoja1!K22,",","."),",",SUBSTITUTE(Hoja1!L22,",","."),",",SUBSTITUTE(Hoja1!M22,",","."),",",SUBSTITUTE(Hoja1!N22,",","."),",",SUBSTITUTE(Hoja1!O22,",","."),",",SUBSTITUTE(Hoja1!P22,",","."),")")</f>
+        <v>(38,213.46,161.17,143.02,94.58,54.44,43.29,47.44,73.58,108.73,158.17,185.17,206.6)</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (38,213.46,161.17,143.02,94.58,54.44,43.29,47.44,73.58,108.73,158.17,185.17,206.6)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D23,",","."),",",SUBSTITUTE(Hoja1!E23,",","."),",",SUBSTITUTE(Hoja1!F23,",","."),",",SUBSTITUTE(Hoja1!G23,",","."),",",SUBSTITUTE(Hoja1!H23,",","."),",",SUBSTITUTE(Hoja1!I23,",","."),",",SUBSTITUTE(Hoja1!J23,",","."),",",SUBSTITUTE(Hoja1!K23,",","."),",",SUBSTITUTE(Hoja1!L23,",","."),",",SUBSTITUTE(Hoja1!M23,",","."),",",SUBSTITUTE(Hoja1!N23,",","."),",",SUBSTITUTE(Hoja1!O23,",","."),",",SUBSTITUTE(Hoja1!P23,",","."),")")</f>
+        <v>(39,194.89,164.74,140.07,87.99,55.39,40.49,46.82,70.22,100.49,138.59,162.14,185.92)</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (39,194.89,164.74,140.07,87.99,55.39,40.49,46.82,70.22,100.49,138.59,162.14,185.92)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D24,",","."),",",SUBSTITUTE(Hoja1!E24,",","."),",",SUBSTITUTE(Hoja1!F24,",","."),",",SUBSTITUTE(Hoja1!G24,",","."),",",SUBSTITUTE(Hoja1!H24,",","."),",",SUBSTITUTE(Hoja1!I24,",","."),",",SUBSTITUTE(Hoja1!J24,",","."),",",SUBSTITUTE(Hoja1!K24,",","."),",",SUBSTITUTE(Hoja1!L24,",","."),",",SUBSTITUTE(Hoja1!M24,",","."),",",SUBSTITUTE(Hoja1!N24,",","."),",",SUBSTITUTE(Hoja1!O24,",","."),",",SUBSTITUTE(Hoja1!P24,",","."),")")</f>
+        <v>(40,195.92,165.13,126.37,80.24,50.27,37.1,43.13,65.53,94.58,131.55,157.8,190.68)</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (40,195.92,165.13,126.37,80.24,50.27,37.1,43.13,65.53,94.58,131.55,157.8,190.68)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D25,",","."),",",SUBSTITUTE(Hoja1!E25,",","."),",",SUBSTITUTE(Hoja1!F25,",","."),",",SUBSTITUTE(Hoja1!G25,",","."),",",SUBSTITUTE(Hoja1!H25,",","."),",",SUBSTITUTE(Hoja1!I25,",","."),",",SUBSTITUTE(Hoja1!J25,",","."),",",SUBSTITUTE(Hoja1!K25,",","."),",",SUBSTITUTE(Hoja1!L25,",","."),",",SUBSTITUTE(Hoja1!M25,",","."),",",SUBSTITUTE(Hoja1!N25,",","."),",",SUBSTITUTE(Hoja1!O25,",","."),",",SUBSTITUTE(Hoja1!P25,",","."),")")</f>
+        <v>(41,184.64,158.26,116.14,75.43,47.09,32.75,39.75,62.46,90.46,125.11,148.27,179.57)</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (41,184.64,158.26,116.14,75.43,47.09,32.75,39.75,62.46,90.46,125.11,148.27,179.57)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D26,",","."),",",SUBSTITUTE(Hoja1!E26,",","."),",",SUBSTITUTE(Hoja1!F26,",","."),",",SUBSTITUTE(Hoja1!G26,",","."),",",SUBSTITUTE(Hoja1!H26,",","."),",",SUBSTITUTE(Hoja1!I26,",","."),",",SUBSTITUTE(Hoja1!J26,",","."),",",SUBSTITUTE(Hoja1!K26,",","."),",",SUBSTITUTE(Hoja1!L26,",","."),",",SUBSTITUTE(Hoja1!M26,",","."),",",SUBSTITUTE(Hoja1!N26,",","."),",",SUBSTITUTE(Hoja1!O26,",","."),",",SUBSTITUTE(Hoja1!P26,",","."),")")</f>
+        <v>(42,175.19,149.18,109.8,70.39,42.4,30.2,37.18,57.58,85.59,119.06,143.25,171.21)</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (42,175.19,149.18,109.8,70.39,42.4,30.2,37.18,57.58,85.59,119.06,143.25,171.21)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D27,",","."),",",SUBSTITUTE(Hoja1!E27,",","."),",",SUBSTITUTE(Hoja1!F27,",","."),",",SUBSTITUTE(Hoja1!G27,",","."),",",SUBSTITUTE(Hoja1!H27,",","."),",",SUBSTITUTE(Hoja1!I27,",","."),",",SUBSTITUTE(Hoja1!J27,",","."),",",SUBSTITUTE(Hoja1!K27,",","."),",",SUBSTITUTE(Hoja1!L27,",","."),",",SUBSTITUTE(Hoja1!M27,",","."),",",SUBSTITUTE(Hoja1!N27,",","."),",",SUBSTITUTE(Hoja1!O27,",","."),",",SUBSTITUTE(Hoja1!P27,",","."),")")</f>
+        <v>(43,170.64,144.8,111.12,66.79,41.03,30.63,33.26,55.6,87.3,126.33,154.13,166.29)</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (43,170.64,144.8,111.12,66.79,41.03,30.63,33.26,55.6,87.3,126.33,154.13,166.29)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D28,",","."),",",SUBSTITUTE(Hoja1!E28,",","."),",",SUBSTITUTE(Hoja1!F28,",","."),",",SUBSTITUTE(Hoja1!G28,",","."),",",SUBSTITUTE(Hoja1!H28,",","."),",",SUBSTITUTE(Hoja1!I28,",","."),",",SUBSTITUTE(Hoja1!J28,",","."),",",SUBSTITUTE(Hoja1!K28,",","."),",",SUBSTITUTE(Hoja1!L28,",","."),",",SUBSTITUTE(Hoja1!M28,",","."),",",SUBSTITUTE(Hoja1!N28,",","."),",",SUBSTITUTE(Hoja1!O28,",","."),",",SUBSTITUTE(Hoja1!P28,",","."),")")</f>
+        <v>(44,183.63,154.27,118.83,69.33,42.5,32.49,33.71,57.79,95.75,137.77,168.49,180.49)</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (44,183.63,154.27,118.83,69.33,42.5,32.49,33.71,57.79,95.75,137.77,168.49,180.49)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D29,",","."),",",SUBSTITUTE(Hoja1!E29,",","."),",",SUBSTITUTE(Hoja1!F29,",","."),",",SUBSTITUTE(Hoja1!G29,",","."),",",SUBSTITUTE(Hoja1!H29,",","."),",",SUBSTITUTE(Hoja1!I29,",","."),",",SUBSTITUTE(Hoja1!J29,",","."),",",SUBSTITUTE(Hoja1!K29,",","."),",",SUBSTITUTE(Hoja1!L29,",","."),",",SUBSTITUTE(Hoja1!M29,",","."),",",SUBSTITUTE(Hoja1!N29,",","."),",",SUBSTITUTE(Hoja1!O29,",","."),",",SUBSTITUTE(Hoja1!P29,",","."),")")</f>
+        <v>(45,161.35,129.63,104.74,60.72,35.26,26.51,31.48,52.5,85.86,127.22,145.63,165.27)</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (45,161.35,129.63,104.74,60.72,35.26,26.51,31.48,52.5,85.86,127.22,145.63,165.27)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D30,",","."),",",SUBSTITUTE(Hoja1!E30,",","."),",",SUBSTITUTE(Hoja1!F30,",","."),",",SUBSTITUTE(Hoja1!G30,",","."),",",SUBSTITUTE(Hoja1!H30,",","."),",",SUBSTITUTE(Hoja1!I30,",","."),",",SUBSTITUTE(Hoja1!J30,",","."),",",SUBSTITUTE(Hoja1!K30,",","."),",",SUBSTITUTE(Hoja1!L30,",","."),",",SUBSTITUTE(Hoja1!M30,",","."),",",SUBSTITUTE(Hoja1!N30,",","."),",",SUBSTITUTE(Hoja1!O30,",","."),",",SUBSTITUTE(Hoja1!P30,",","."),")")</f>
+        <v>(46,197.09,153.7,122.88,71.65,41.51,31.38,37.82,61.68,101.53,148.51,179.62,200.04)</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (46,197.09,153.7,122.88,71.65,41.51,31.38,37.82,61.68,101.53,148.51,179.62,200.04)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D31,",","."),",",SUBSTITUTE(Hoja1!E31,",","."),",",SUBSTITUTE(Hoja1!F31,",","."),",",SUBSTITUTE(Hoja1!G31,",","."),",",SUBSTITUTE(Hoja1!H31,",","."),",",SUBSTITUTE(Hoja1!I31,",","."),",",SUBSTITUTE(Hoja1!J31,",","."),",",SUBSTITUTE(Hoja1!K31,",","."),",",SUBSTITUTE(Hoja1!L31,",","."),",",SUBSTITUTE(Hoja1!M31,",","."),",",SUBSTITUTE(Hoja1!N31,",","."),",",SUBSTITUTE(Hoja1!O31,",","."),",",SUBSTITUTE(Hoja1!P31,",","."),")")</f>
+        <v>(47,174.46,137.38,114.47,64.24,38.01,27.23,33.43,54.4,91.7,133.2,154.96,169.07)</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (47,174.46,137.38,114.47,64.24,38.01,27.23,33.43,54.4,91.7,133.2,154.96,169.07)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D32,",","."),",",SUBSTITUTE(Hoja1!E32,",","."),",",SUBSTITUTE(Hoja1!F32,",","."),",",SUBSTITUTE(Hoja1!G32,",","."),",",SUBSTITUTE(Hoja1!H32,",","."),",",SUBSTITUTE(Hoja1!I32,",","."),",",SUBSTITUTE(Hoja1!J32,",","."),",",SUBSTITUTE(Hoja1!K32,",","."),",",SUBSTITUTE(Hoja1!L32,",","."),",",SUBSTITUTE(Hoja1!M32,",","."),",",SUBSTITUTE(Hoja1!N32,",","."),",",SUBSTITUTE(Hoja1!O32,",","."),",",SUBSTITUTE(Hoja1!P32,",","."),")")</f>
+        <v>(48,149.04,116.9,97.13,54.76,32.06,22.29,26.36,46.21,79.03,118.97,132.06,154.09)</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (48,149.04,116.9,97.13,54.76,32.06,22.29,26.36,46.21,79.03,118.97,132.06,154.09)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D33,",","."),",",SUBSTITUTE(Hoja1!E33,",","."),",",SUBSTITUTE(Hoja1!F33,",","."),",",SUBSTITUTE(Hoja1!G33,",","."),",",SUBSTITUTE(Hoja1!H33,",","."),",",SUBSTITUTE(Hoja1!I33,",","."),",",SUBSTITUTE(Hoja1!J33,",","."),",",SUBSTITUTE(Hoja1!K33,",","."),",",SUBSTITUTE(Hoja1!L33,",","."),",",SUBSTITUTE(Hoja1!M33,",","."),",",SUBSTITUTE(Hoja1!N33,",","."),",",SUBSTITUTE(Hoja1!O33,",","."),",",SUBSTITUTE(Hoja1!P33,",","."),")")</f>
+        <v>(49,160.89,123.12,105.84,59.78,35.37,24.58,29.73,49.74,86.99,123.57,143.53,155.68)</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (49,160.89,123.12,105.84,59.78,35.37,24.58,29.73,49.74,86.99,123.57,143.53,155.68)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D34,",","."),",",SUBSTITUTE(Hoja1!E34,",","."),",",SUBSTITUTE(Hoja1!F34,",","."),",",SUBSTITUTE(Hoja1!G34,",","."),",",SUBSTITUTE(Hoja1!H34,",","."),",",SUBSTITUTE(Hoja1!I34,",","."),",",SUBSTITUTE(Hoja1!J34,",","."),",",SUBSTITUTE(Hoja1!K34,",","."),",",SUBSTITUTE(Hoja1!L34,",","."),",",SUBSTITUTE(Hoja1!M34,",","."),",",SUBSTITUTE(Hoja1!N34,",","."),",",SUBSTITUTE(Hoja1!O34,",","."),",",SUBSTITUTE(Hoja1!P34,",","."),")")</f>
+        <v>(50,138.89,102.05,86.83,47.81,29.26,16.75,20.5,36.1,70.32,103.03,127.23,143.62)</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (50,138.89,102.05,86.83,47.81,29.26,16.75,20.5,36.1,70.32,103.03,127.23,143.62)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D35,",","."),",",SUBSTITUTE(Hoja1!E35,",","."),",",SUBSTITUTE(Hoja1!F35,",","."),",",SUBSTITUTE(Hoja1!G35,",","."),",",SUBSTITUTE(Hoja1!H35,",","."),",",SUBSTITUTE(Hoja1!I35,",","."),",",SUBSTITUTE(Hoja1!J35,",","."),",",SUBSTITUTE(Hoja1!K35,",","."),",",SUBSTITUTE(Hoja1!L35,",","."),",",SUBSTITUTE(Hoja1!M35,",","."),",",SUBSTITUTE(Hoja1!N35,",","."),",",SUBSTITUTE(Hoja1!O35,",","."),",",SUBSTITUTE(Hoja1!P35,",","."),")")</f>
+        <v>(51,165.91,117.28,93.43,50.77,29.68,16.62,21.21,37,76.21,111.82,153.17,170.78)</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (51,165.91,117.28,93.43,50.77,29.68,16.62,21.21,37,76.21,111.82,153.17,170.78)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D36,",","."),",",SUBSTITUTE(Hoja1!E36,",","."),",",SUBSTITUTE(Hoja1!F36,",","."),",",SUBSTITUTE(Hoja1!G36,",","."),",",SUBSTITUTE(Hoja1!H36,",","."),",",SUBSTITUTE(Hoja1!I36,",","."),",",SUBSTITUTE(Hoja1!J36,",","."),",",SUBSTITUTE(Hoja1!K36,",","."),",",SUBSTITUTE(Hoja1!L36,",","."),",",SUBSTITUTE(Hoja1!M36,",","."),",",SUBSTITUTE(Hoja1!N36,",","."),",",SUBSTITUTE(Hoja1!O36,",","."),",",SUBSTITUTE(Hoja1!P36,",","."),")")</f>
+        <v>(52,171.32,118.17,95.92,50.26,26.12,14.83,18.99,31.36,74.1,111.73,165.1,176.64)</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (52,171.32,118.17,95.92,50.26,26.12,14.83,18.99,31.36,74.1,111.73,165.1,176.64)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D37,",","."),",",SUBSTITUTE(Hoja1!E37,",","."),",",SUBSTITUTE(Hoja1!F37,",","."),",",SUBSTITUTE(Hoja1!G37,",","."),",",SUBSTITUTE(Hoja1!H37,",","."),",",SUBSTITUTE(Hoja1!I37,",","."),",",SUBSTITUTE(Hoja1!J37,",","."),",",SUBSTITUTE(Hoja1!K37,",","."),",",SUBSTITUTE(Hoja1!L37,",","."),",",SUBSTITUTE(Hoja1!M37,",","."),",",SUBSTITUTE(Hoja1!N37,",","."),",",SUBSTITUTE(Hoja1!O37,",","."),",",SUBSTITUTE(Hoja1!P37,",","."),")")</f>
+        <v>(53,145.02,100.54,82.18,42.79,22.53,12.25,15.85,27.06,63.84,95.33,140.11,152.02)</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (53,145.02,100.54,82.18,42.79,22.53,12.25,15.85,27.06,63.84,95.33,140.11,152.02)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D38,",","."),",",SUBSTITUTE(Hoja1!E38,",","."),",",SUBSTITUTE(Hoja1!F38,",","."),",",SUBSTITUTE(Hoja1!G38,",","."),",",SUBSTITUTE(Hoja1!H38,",","."),",",SUBSTITUTE(Hoja1!I38,",","."),",",SUBSTITUTE(Hoja1!J38,",","."),",",SUBSTITUTE(Hoja1!K38,",","."),",",SUBSTITUTE(Hoja1!L38,",","."),",",SUBSTITUTE(Hoja1!M38,",","."),",",SUBSTITUTE(Hoja1!N38,",","."),",",SUBSTITUTE(Hoja1!O38,",","."),",",SUBSTITUTE(Hoja1!P38,",","."),")")</f>
+        <v>(54,135.04,96.6,75.47,40.34,21.45,11.25,15.07,30.69,63.83,100.05,135.06,147.38)</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (54,135.04,96.6,75.47,40.34,21.45,11.25,15.07,30.69,63.83,100.05,135.06,147.38)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>CONCATENATE("(",SUBSTITUTE(Hoja1!D39,",","."),",",SUBSTITUTE(Hoja1!E39,",","."),",",SUBSTITUTE(Hoja1!F39,",","."),",",SUBSTITUTE(Hoja1!G39,",","."),",",SUBSTITUTE(Hoja1!H39,",","."),",",SUBSTITUTE(Hoja1!I39,",","."),",",SUBSTITUTE(Hoja1!J39,",","."),",",SUBSTITUTE(Hoja1!K39,",","."),",",SUBSTITUTE(Hoja1!L39,",","."),",",SUBSTITUTE(Hoja1!M39,",","."),",",SUBSTITUTE(Hoja1!N39,",","."),",",SUBSTITUTE(Hoja1!O39,",","."),",",SUBSTITUTE(Hoja1!P39,",","."),")")</f>
+        <v>(55,131,92.89,71.98,37.91,19.6,10.28,14.05,30.73,63.04,100.23,131.68,144.76)</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO radiacion_horizontal (RH_LATITUD, RH_ENERO, RH_FEBRERO, RH_MARZO, RH_ABRIL, RH_MAYO, RH_JUNIO, RH_JULIO, RH_AGOSTO, RH_SEPTIEMBRE, RH_OCTUBRE, RH_NOVIEMBRE, RH_DICIEMBRE) VALUE (55,131,92.89,71.98,37.91,19.6,10.28,14.05,30.73,63.04,100.23,131.68,144.76)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>